--- a/teaching/traditional_assets/database/data/brazil/brazil_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,116 +590,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.386</v>
+      </c>
       <c r="G2">
-        <v>-0.1530701754385965</v>
+        <v>-1.203538913362702</v>
       </c>
       <c r="H2">
-        <v>-0.1530701754385965</v>
+        <v>-1.176666666666667</v>
       </c>
       <c r="I2">
-        <v>-0.2771929824561404</v>
+        <v>3.334419970631425</v>
       </c>
       <c r="J2">
-        <v>-0.2771929824561404</v>
+        <v>3.334419970631425</v>
       </c>
       <c r="K2">
-        <v>2.44</v>
+        <v>-154.061</v>
       </c>
       <c r="L2">
-        <v>0.2140350877192982</v>
+        <v>2.262276064610867</v>
       </c>
       <c r="M2">
-        <v>0.026</v>
+        <v>4.06</v>
       </c>
       <c r="N2">
-        <v>0.0006235011990407673</v>
+        <v>0.01200863675352717</v>
       </c>
       <c r="O2">
-        <v>0.01065573770491803</v>
+        <v>-0.02635319775932909</v>
       </c>
       <c r="P2">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0006235011990407673</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01065573770491803</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>17.172</v>
+        <v>84.72</v>
       </c>
       <c r="V2">
-        <v>0.411798561151079</v>
+        <v>0.2505841639800053</v>
       </c>
       <c r="W2">
-        <v>1.859614887567847</v>
+        <v>-0.26214794181368</v>
       </c>
       <c r="X2">
-        <v>0.0679041811497146</v>
+        <v>0.07023618104455918</v>
       </c>
       <c r="Y2">
-        <v>1.791710706418132</v>
+        <v>-0.3323841228582392</v>
       </c>
       <c r="Z2">
-        <v>1.541790641060319</v>
+        <v>-0.2000252601650135</v>
       </c>
       <c r="AA2">
-        <v>-0.4398478345410523</v>
+        <v>-0.0008132285172133367</v>
       </c>
       <c r="AB2">
-        <v>0.06478386301671504</v>
+        <v>0.05571208358509124</v>
       </c>
       <c r="AC2">
-        <v>-0.5046316975577674</v>
+        <v>-0.05652531210230458</v>
       </c>
       <c r="AD2">
-        <v>7.45</v>
+        <v>309</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.45</v>
+        <v>309</v>
       </c>
       <c r="AG2">
-        <v>-9.721999999999998</v>
+        <v>224.28</v>
       </c>
       <c r="AH2">
-        <v>0.1515768056968464</v>
+        <v>0.4775224466457525</v>
       </c>
       <c r="AI2">
-        <v>0.2863182167563413</v>
+        <v>0.4016220853154488</v>
       </c>
       <c r="AJ2">
-        <v>-0.304021514791419</v>
+        <v>0.3988121699237157</v>
       </c>
       <c r="AK2">
-        <v>-1.09877938517179</v>
+        <v>0.3275786521777233</v>
       </c>
       <c r="AL2">
-        <v>0.41</v>
+        <v>50.569</v>
       </c>
       <c r="AM2">
-        <v>-4.250999999999999</v>
+        <v>43.076</v>
       </c>
       <c r="AN2">
-        <v>-3.06836902800659</v>
+        <v>-1.369134653728566</v>
       </c>
       <c r="AO2">
-        <v>-7.707317073170731</v>
+        <v>-4.490379481500524</v>
       </c>
       <c r="AP2">
-        <v>4.004118616144974</v>
+        <v>-0.9937524923567725</v>
       </c>
       <c r="AQ2">
-        <v>0.7433545048223948</v>
+        <v>-5.271473674435881</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bahema Educação S.A. (BOVESPA:BAHI3)</t>
+          <t>Padtec Holding S.A. (BOVESPA:PDTC3)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,116 +721,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.386</v>
+      </c>
       <c r="G3">
-        <v>-0.0663157894736842</v>
+        <v>0.08070967741935485</v>
       </c>
       <c r="H3">
-        <v>-0.0663157894736842</v>
+        <v>-0.03735483870967742</v>
       </c>
       <c r="I3">
-        <v>-0.237719298245614</v>
+        <v>0.1393548387096774</v>
       </c>
       <c r="J3">
-        <v>-0.237719298245614</v>
+        <v>0.1393548387096774</v>
       </c>
       <c r="K3">
-        <v>-1.62</v>
+        <v>1.23</v>
       </c>
       <c r="L3">
-        <v>-0.1421052631578947</v>
+        <v>0.07935483870967742</v>
       </c>
       <c r="M3">
-        <v>0.026</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.000912280701754386</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.01604938271604938</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>0.026</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.000912280701754386</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.01604938271604938</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>16.4</v>
+        <v>8.92</v>
       </c>
       <c r="V3">
-        <v>0.575438596491228</v>
+        <v>0.09055837563451777</v>
       </c>
       <c r="W3">
-        <v>-0.1109589041095891</v>
+        <v>0.2474849094567405</v>
       </c>
       <c r="X3">
-        <v>0.07177191470775433</v>
+        <v>0.05548215820366659</v>
       </c>
       <c r="Y3">
-        <v>-0.1827308188173434</v>
+        <v>0.1920027512530739</v>
       </c>
       <c r="Z3">
-        <v>1.778748634732408</v>
+        <v>3.692234397332063</v>
       </c>
       <c r="AA3">
-        <v>-0.422842877203932</v>
+        <v>0.5145307289185327</v>
       </c>
       <c r="AB3">
-        <v>0.06553127844175524</v>
+        <v>0.05306651197764992</v>
       </c>
       <c r="AC3">
-        <v>-0.4883741556456873</v>
+        <v>0.4614642169408827</v>
       </c>
       <c r="AD3">
-        <v>7.45</v>
+        <v>15.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.45</v>
+        <v>15.1</v>
       </c>
       <c r="AG3">
-        <v>-8.949999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="AH3">
-        <v>0.2072322670375522</v>
+        <v>0.1329225352112676</v>
       </c>
       <c r="AI3">
-        <v>0.3539192399049881</v>
+        <v>0.470404984423676</v>
       </c>
       <c r="AJ3">
-        <v>-0.4578005115089513</v>
+        <v>0.05903706534199464</v>
       </c>
       <c r="AK3">
-        <v>-1.924731182795699</v>
+        <v>0.2666091458153581</v>
       </c>
       <c r="AL3">
-        <v>0.399</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AM3">
-        <v>-0.382</v>
+        <v>0.229</v>
       </c>
       <c r="AN3">
-        <v>-3.762626262626263</v>
+        <v>6.239669421487603</v>
       </c>
       <c r="AO3">
-        <v>-6.791979949874686</v>
+        <v>3.864042933810376</v>
       </c>
       <c r="AP3">
-        <v>4.52020202020202</v>
+        <v>2.553719008264463</v>
       </c>
       <c r="AQ3">
-        <v>7.094240837696335</v>
+        <v>9.432314410480348</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ideiasnet S.A. (BOVESPA:IDNT3)</t>
+          <t>Cemepe Investimentos S.A. (BOVESPA:MAPT4)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,97 +850,448 @@
         </is>
       </c>
       <c r="K4">
+        <v>-0.031</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.02330827067669173</v>
+      </c>
+      <c r="X4">
+        <v>0.05123888023031327</v>
+      </c>
+      <c r="Y4">
+        <v>-0.02793060955362154</v>
+      </c>
+      <c r="Z4">
+        <v>-0</v>
+      </c>
+      <c r="AA4">
+        <v>0.02330827067669173</v>
+      </c>
+      <c r="AB4">
+        <v>0.05123888023031327</v>
+      </c>
+      <c r="AC4">
+        <v>-0.02793060955362154</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>-0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>-0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bahema Educação S.A. (BOVESPA:BAHI3)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>-0.07711267605633804</v>
+      </c>
+      <c r="H5">
+        <v>-0.07711267605633804</v>
+      </c>
+      <c r="I5">
+        <v>-0.0001056338028169014</v>
+      </c>
+      <c r="J5">
+        <v>-0.0001056338028169014</v>
+      </c>
+      <c r="K5">
+        <v>-5.86</v>
+      </c>
+      <c r="L5">
+        <v>-0.2063380281690141</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>6.21</v>
+      </c>
+      <c r="V5">
+        <v>0.1664879356568365</v>
+      </c>
+      <c r="W5">
+        <v>-0.4578125</v>
+      </c>
+      <c r="X5">
+        <v>0.07023618104455918</v>
+      </c>
+      <c r="Y5">
+        <v>-0.5280486810445592</v>
+      </c>
+      <c r="Z5">
+        <v>7.698563296286253</v>
+      </c>
+      <c r="AA5">
+        <v>-0.0008132285172133367</v>
+      </c>
+      <c r="AB5">
+        <v>0.05571208358509124</v>
+      </c>
+      <c r="AC5">
+        <v>-0.05652531210230458</v>
+      </c>
+      <c r="AD5">
+        <v>25.6</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>25.6</v>
+      </c>
+      <c r="AG5">
+        <v>19.39</v>
+      </c>
+      <c r="AH5">
+        <v>0.4069952305246423</v>
+      </c>
+      <c r="AI5">
+        <v>0.6139088729016786</v>
+      </c>
+      <c r="AJ5">
+        <v>0.3420356323866643</v>
+      </c>
+      <c r="AK5">
+        <v>0.5463510848126233</v>
+      </c>
+      <c r="AL5">
+        <v>1.61</v>
+      </c>
+      <c r="AM5">
+        <v>1.226</v>
+      </c>
+      <c r="AN5">
+        <v>12.8643216080402</v>
+      </c>
+      <c r="AO5">
+        <v>-0.001863354037267081</v>
+      </c>
+      <c r="AP5">
+        <v>9.743718592964825</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.002446982055464927</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GP Investments, Ltd. (BOVESPA:GPIV33)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>-1.025850340136055</v>
+      </c>
+      <c r="H6">
+        <v>-1.025850340136055</v>
+      </c>
+      <c r="I6">
+        <v>1.34421768707483</v>
+      </c>
+      <c r="J6">
+        <v>1.34421768707483</v>
+      </c>
+      <c r="K6">
+        <v>-84.7</v>
+      </c>
+      <c r="L6">
+        <v>0.5761904761904763</v>
+      </c>
+      <c r="M6">
         <v>4.06</v>
       </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.772</v>
-      </c>
-      <c r="V4">
-        <v>0.05848484848484849</v>
-      </c>
-      <c r="W4">
-        <v>3.830188679245282</v>
-      </c>
-      <c r="X4">
-        <v>0.06403644759167486</v>
-      </c>
-      <c r="Y4">
-        <v>3.766152231653607</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>-0.4568527918781726</v>
-      </c>
-      <c r="AB4">
-        <v>0.06403644759167486</v>
-      </c>
-      <c r="AC4">
-        <v>-0.5208892394698474</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>-0.772</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.06211779851947217</v>
-      </c>
-      <c r="AK4">
-        <v>-0.1838970938542163</v>
-      </c>
-      <c r="AL4">
-        <v>0.011</v>
-      </c>
-      <c r="AM4">
-        <v>-3.869</v>
-      </c>
-      <c r="AN4">
-        <v>-0</v>
-      </c>
-      <c r="AO4">
-        <v>-40.90909090909091</v>
-      </c>
-      <c r="AP4">
-        <v>1.723214285714286</v>
-      </c>
-      <c r="AQ4">
-        <v>0.1163091238046007</v>
+      <c r="N6">
+        <v>0.0441784548422198</v>
+      </c>
+      <c r="O6">
+        <v>-0.04793388429752066</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>4.06</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>64.3</v>
+      </c>
+      <c r="V6">
+        <v>0.6996735582154515</v>
+      </c>
+      <c r="W6">
+        <v>-0.26214794181368</v>
+      </c>
+      <c r="X6">
+        <v>0.07762341014756889</v>
+      </c>
+      <c r="Y6">
+        <v>-0.3397713519612489</v>
+      </c>
+      <c r="Z6">
+        <v>-0.440251572327044</v>
+      </c>
+      <c r="AA6">
+        <v>-0.5917939502845163</v>
+      </c>
+      <c r="AB6">
+        <v>0.05660263576064074</v>
+      </c>
+      <c r="AC6">
+        <v>-0.648396586045157</v>
+      </c>
+      <c r="AD6">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>23.3</v>
+      </c>
+      <c r="AH6">
+        <v>0.4880222841225627</v>
+      </c>
+      <c r="AI6">
+        <v>0.1822721598002497</v>
+      </c>
+      <c r="AJ6">
+        <v>0.2022569444444444</v>
+      </c>
+      <c r="AK6">
+        <v>0.05596925294258947</v>
+      </c>
+      <c r="AL6">
+        <v>22.1</v>
+      </c>
+      <c r="AM6">
+        <v>15.94</v>
+      </c>
+      <c r="AN6">
+        <v>-0.4435443037974683</v>
+      </c>
+      <c r="AO6">
+        <v>-8.941176470588234</v>
+      </c>
+      <c r="AP6">
+        <v>-0.1179746835443038</v>
+      </c>
+      <c r="AQ6">
+        <v>-12.39648682559598</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alphaville S.A. (BOVESPA:AVLL3)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>-1.94</v>
+      </c>
+      <c r="H7">
+        <v>-1.94</v>
+      </c>
+      <c r="I7">
+        <v>-0.9028571428571429</v>
+      </c>
+      <c r="J7">
+        <v>-0.9028571428571429</v>
+      </c>
+      <c r="K7">
+        <v>-64.7</v>
+      </c>
+      <c r="L7">
+        <v>-1.848571428571429</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>5.29</v>
+      </c>
+      <c r="V7">
+        <v>0.05191364082433758</v>
+      </c>
+      <c r="X7">
+        <v>0.1003234212904469</v>
+      </c>
+      <c r="AB7">
+        <v>0.06003064526129057</v>
+      </c>
+      <c r="AD7">
+        <v>180.7</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>180.7</v>
+      </c>
+      <c r="AG7">
+        <v>175.41</v>
+      </c>
+      <c r="AH7">
+        <v>0.6394196744515215</v>
+      </c>
+      <c r="AI7">
+        <v>0.836574074074074</v>
+      </c>
+      <c r="AJ7">
+        <v>0.6325411993797555</v>
+      </c>
+      <c r="AK7">
+        <v>0.8324711689051303</v>
+      </c>
+      <c r="AL7">
+        <v>26.3</v>
+      </c>
+      <c r="AM7">
+        <v>25.681</v>
+      </c>
+      <c r="AN7">
+        <v>-5.542944785276073</v>
+      </c>
+      <c r="AO7">
+        <v>-1.201520912547529</v>
+      </c>
+      <c r="AP7">
+        <v>-5.380674846625767</v>
+      </c>
+      <c r="AQ7">
+        <v>-1.230481679062342</v>
       </c>
     </row>
   </sheetData>
